--- a/Resources/PaintingsIlike.xlsx
+++ b/Resources/PaintingsIlike.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>1f5b595f-dbbd-3c9d-ca49-9263c3d93841</t>
   </si>
   <si>
-    <t>https://api.artic.edu/api/v1/artworks/11434</t>
-  </si>
-  <si>
     <t>Salome with the Head of Saint John the Baptist</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>image_id</t>
   </si>
   <si>
-    <t>api_link</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>medium_display</t>
   </si>
   <si>
-    <t>is_on_view</t>
-  </si>
-  <si>
     <t>artwork_type_title</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
     <t>a65a99ee-3114-9390-6513-cd9554a9d29b</t>
   </si>
   <si>
-    <t>https://api.artic.edu/api/v1/artworks/110968</t>
-  </si>
-  <si>
     <t>CafÃ© Express</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>4d6a1e9e-c011-b916-4f02-ca37fa2f3063</t>
   </si>
   <si>
-    <t>https://api.artic.edu/api/v1/artworks/81503</t>
-  </si>
-  <si>
     <t>Arab Horseman Attacked by a Lion</t>
   </si>
   <si>
@@ -132,6 +117,93 @@
   </si>
   <si>
     <t>['Painting and Sculpture of Europe']</t>
+  </si>
+  <si>
+    <t>a161daf3-6766-63ed-3de6-0fc4f6d196fe</t>
+  </si>
+  <si>
+    <t>A Mother Feeding her Child (The Happy Mother)</t>
+  </si>
+  <si>
+    <t>Willem van Mieris</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>59ce4cb2-beae-5492-0d83-345cbc0745c2</t>
+  </si>
+  <si>
+    <t>Venus and Cupid at the Forge of Vulcan</t>
+  </si>
+  <si>
+    <t>Johann Michael Rottmayr</t>
+  </si>
+  <si>
+    <t>1690/95</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>ab49fdd2-5acc-981e-f11e-c631bbd5487f</t>
+  </si>
+  <si>
+    <t>Diana and Endymion</t>
+  </si>
+  <si>
+    <t>52edf63c-0706-cf5d-c7de-b3a458b60ff4</t>
+  </si>
+  <si>
+    <t>Barack</t>
+  </si>
+  <si>
+    <t>Jordan Casteel</t>
+  </si>
+  <si>
+    <t>['Contemporary Art']</t>
+  </si>
+  <si>
+    <t>19911e07-f330-9337-26c6-982dc74f1422</t>
+  </si>
+  <si>
+    <t>The Drawing Class</t>
+  </si>
+  <si>
+    <t>Nicole Eisenman</t>
+  </si>
+  <si>
+    <t>Oil and charcoal on canvas</t>
+  </si>
+  <si>
+    <t>['Contemporary Art', 'Women artists']</t>
+  </si>
+  <si>
+    <t>Ivan Albright</t>
+  </si>
+  <si>
+    <t>['Chicago Artists', 'SAIC Alumni and Faculty', 'Arts of the Americas']</t>
+  </si>
+  <si>
+    <t>f1884649-dc74-5885-ecb6-a50c5cb7fbc9</t>
+  </si>
+  <si>
+    <t>Self-Portrait (No. 3)</t>
+  </si>
+  <si>
+    <t>Oil on hardboard</t>
+  </si>
+  <si>
+    <t>237b40f0-4c66-7073-2848-c1a1be7f2d0e</t>
+  </si>
+  <si>
+    <t>Self-Portrait (No. 2)</t>
+  </si>
+  <si>
+    <t>e25a910d-f8ed-34d3-dd37-6c83bbc22123</t>
+  </si>
+  <si>
+    <t>Self-Portrait (No. 5)</t>
   </si>
 </sst>
 </file>
@@ -449,56 +521,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11434</v>
       </c>
@@ -509,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1635</v>
@@ -518,42 +590,36 @@
         <v>1645</v>
       </c>
       <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="s">
+        <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110968</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1975</v>
       </c>
       <c r="F3">
         <v>1975</v>
@@ -561,64 +627,332 @@
       <c r="G3">
         <v>1975</v>
       </c>
-      <c r="H3">
-        <v>1975</v>
+      <c r="H3" t="s">
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>81503</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1849</v>
+      </c>
+      <c r="F4">
+        <v>1850</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>497</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="F4">
-        <v>1849</v>
-      </c>
-      <c r="G4">
-        <v>1850</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="J4" t="s">
+      <c r="E5">
+        <v>1707</v>
+      </c>
+      <c r="F5">
+        <v>1707</v>
+      </c>
+      <c r="G5">
+        <v>1707</v>
+      </c>
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12879</v>
+      </c>
+      <c r="B6" t="s">
         <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>1690</v>
+      </c>
+      <c r="F6">
+        <v>1695</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12876</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1690</v>
+      </c>
+      <c r="F7">
+        <v>1695</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>260037</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+      <c r="G8">
+        <v>2020</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>209580</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>2011</v>
+      </c>
+      <c r="F9">
+        <v>2011</v>
+      </c>
+      <c r="G9">
+        <v>2011</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>104261</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>1981</v>
+      </c>
+      <c r="F10">
+        <v>1981</v>
+      </c>
+      <c r="G10">
+        <v>1981</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>104260</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>1981</v>
+      </c>
+      <c r="F11">
+        <v>1981</v>
+      </c>
+      <c r="G11">
+        <v>1981</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>104263</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>1981</v>
+      </c>
+      <c r="F12">
+        <v>1981</v>
+      </c>
+      <c r="G12">
+        <v>1981</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/PaintingsIlike.xlsx
+++ b/Resources/PaintingsIlike.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8565" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8565"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="1413">
   <si>
     <t>1f5b595f-dbbd-3c9d-ca49-9263c3d93841</t>
   </si>
@@ -4195,6 +4195,75 @@
   </si>
   <si>
     <t>Zou Yigui</t>
+  </si>
+  <si>
+    <t>be9551d4-860f-37a0-1408-086617f1824e</t>
+  </si>
+  <si>
+    <t>Inventions of the Monsters</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>['Modern Art', 'Halloween', 'Essentials']</t>
+  </si>
+  <si>
+    <t>96e26f4f-c578-b14c-2714-2a565f19e0d0</t>
+  </si>
+  <si>
+    <t>Weaving</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Tempera and oil on canvas</t>
+  </si>
+  <si>
+    <t>['Latin American', 'Arts of the Americas']</t>
+  </si>
+  <si>
+    <t>b846f704-96d3-3898-aece-13969147c48c</t>
+  </si>
+  <si>
+    <t>A Chemist Lifting with Extreme Precaution the Cuticle of a Grand Piano</t>
+  </si>
+  <si>
+    <t>['Modern Art']</t>
+  </si>
+  <si>
+    <t>85ddc062-0cc4-431f-679b-b9a139fba241</t>
+  </si>
+  <si>
+    <t>The Two Philosophers</t>
+  </si>
+  <si>
+    <t>February 4â€“12, 1936</t>
+  </si>
+  <si>
+    <t>Oil on copper</t>
+  </si>
+  <si>
+    <t>f1cf9e7a-a0f3-3ec9-00b8-a9cbb62244c9</t>
+  </si>
+  <si>
+    <t>Self-Portrait</t>
+  </si>
+  <si>
+    <t>['Chicago Artists', 'Drinking and Dining', 'SAIC Alumni and Faculty', 'Arts of the Americas']</t>
+  </si>
+  <si>
+    <t>2dc3f568-78ec-8475-7c96-9d9a104e308f</t>
+  </si>
+  <si>
+    <t>Portrait of Woman in White</t>
+  </si>
+  <si>
+    <t>a5ed8247-1427-586e-d37c-6bdc04948350</t>
+  </si>
+  <si>
+    <t>MarÃ­a Izquierdo</t>
   </si>
 </sst>
 </file>
@@ -4512,10 +4581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4946,6 +5015,251 @@
         <v>52</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>151424</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E13">
+        <v>1937</v>
+      </c>
+      <c r="F13">
+        <v>1937</v>
+      </c>
+      <c r="G13">
+        <v>1937</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>151363</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E14">
+        <v>1936</v>
+      </c>
+      <c r="F14">
+        <v>1936</v>
+      </c>
+      <c r="G14">
+        <v>1936</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>145241</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E15">
+        <v>1936</v>
+      </c>
+      <c r="F15">
+        <v>1936</v>
+      </c>
+      <c r="G15">
+        <v>1936</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>110974</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D16" t="s">
+        <v>713</v>
+      </c>
+      <c r="E16">
+        <v>1936</v>
+      </c>
+      <c r="F16">
+        <v>1936</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1405</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>62273</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>1935</v>
+      </c>
+      <c r="F17">
+        <v>1935</v>
+      </c>
+      <c r="G17">
+        <v>1935</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2820</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E18">
+        <v>1934</v>
+      </c>
+      <c r="F18">
+        <v>1934</v>
+      </c>
+      <c r="G18">
+        <v>1934</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>55501</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E19">
+        <v>1932</v>
+      </c>
+      <c r="F19">
+        <v>1932</v>
+      </c>
+      <c r="G19">
+        <v>1932</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4956,8 +5270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
